--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter01/Sparkline.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/04. Excel - Creating a basic dashboard/Material/Ex_Files_Dashboard_Excel2016/Exercise Files/Chapter01/Sparkline.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Descargas\1. GIT\OnlineCourses\17. LinkedIn Learning\01. Microsoft Excel\01. Master Microsoft Excel - Learning Path\04. Excel - Creating a basic dashboard\Material\Ex_Files_Dashboard_Excel2016\Exercise Files\Chapter01\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06ABA8E-06B5-4796-9CBD-CEB29C62B61F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="14640"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -83,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,13 +178,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:D13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Month"/>
-    <tableColumn id="2" name="Revenue"/>
-    <tableColumn id="3" name="Target"/>
-    <tableColumn id="4" name="Result" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Revenue"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Target"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Result" dataDxfId="0">
       <calculatedColumnFormula>B2-C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -478,21 +488,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -527,7 +538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -542,7 +553,7 @@
         <v>-7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -557,7 +568,7 @@
         <v>-16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -572,7 +583,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -587,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -602,7 +613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -617,7 +628,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -632,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -647,7 +658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -662,7 +673,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -677,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -697,5 +708,43 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1" xr2:uid="{7DFA204B-0E41-4509-986C-5BC212E64C49}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!D2:D13</xm:f>
+              <xm:sqref>G2</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup type="column" displayEmptyCellsAs="gap" xr2:uid="{8861A25C-0542-4104-B2F7-92A693FF6B67}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet1!B2:B13</xm:f>
+              <xm:sqref>G1</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
+  </extLst>
 </worksheet>
 </file>